--- a/biology/Botanique/Tilopteridaceae/Tilopteridaceae.xlsx
+++ b/biology/Botanique/Tilopteridaceae/Tilopteridaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Tilopteridaceae sont une famille d’algues brunes de l’ordre des Tilopteridales. 
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Tilopteris, composé du préfixe til-, et du mot grec πτέρης / pteris, « aile, fougère ». Le préfixe til- peut faire référence au genre Tilia (le tilleul). Wuitners évoque un autre arbre pour décrire l'espèce Tilopteris mertensii : « cette algue (a) des rameaux étalés comme les barbes d'une plume, rappelant le port de l'Araucaria »[2]. Mais til- peut aussi signifier « épiler, plumer », de sorte que le nom pourrait aussi suggérer que cette algue ressemble à une « aile déplumée ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Tilopteris, composé du préfixe til-, et du mot grec πτέρης / pteris, « aile, fougère ». Le préfixe til- peut faire référence au genre Tilia (le tilleul). Wuitners évoque un autre arbre pour décrire l'espèce Tilopteris mertensii : « cette algue (a) des rameaux étalés comme les barbes d'une plume, rappelant le port de l'Araucaria ». Mais til- peut aussi signifier « épiler, plumer », de sorte que le nom pourrait aussi suggérer que cette algue ressemble à une « aile déplumée ».
 </t>
         </is>
       </c>
@@ -542,12 +556,14 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (25 août 2017)[1] et ITIS      (25 août 2017)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (25 août 2017) et ITIS      (25 août 2017) :
 Haplospora Kjellman
 Tilopteris Kützing
-Selon World Register of Marine Species                               (25 août 2017)[4] :
+Selon World Register of Marine Species                               (25 août 2017) :
 Haplospora Kjellman, 1872
 Krobylopteris P.Schmidt, 1942
 Tilopteris Kützing, 1849</t>
